--- a/TestData/126邮箱联系人.xlsx
+++ b/TestData/126邮箱联系人.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangbingwei/workspace/data_driven_framework/TestData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="126账号" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="联系人" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="126账号" sheetId="1" r:id="rId1"/>
+    <sheet name="联系人" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>序号</t>
   </si>
@@ -36,11 +46,7 @@
     <t>测试结果</t>
   </si>
   <si>
-    <t>nihaomesun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qwer1234
-</t>
+    <t>zhangbingweidts</t>
   </si>
   <si>
     <t>联系人</t>
@@ -52,7 +58,7 @@
     <t>testman1980</t>
   </si>
   <si>
-    <t>wulaoshi1978</t>
+    <t>n</t>
   </si>
   <si>
     <t>我就是</t>
@@ -79,6 +85,9 @@
     <t>执行时间</t>
   </si>
   <si>
+    <t>忽略</t>
+  </si>
+  <si>
     <t>lily</t>
   </si>
   <si>
@@ -91,7 +100,7 @@
     <t>135xxxxxxx1</t>
   </si>
   <si>
-    <t>2018-02-09 11:11:53</t>
+    <t>横说竖说时候是</t>
   </si>
   <si>
     <t>张三</t>
@@ -106,15 +115,6 @@
     <t>158xxxxxxx3</t>
   </si>
   <si>
-    <t>忽略</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>2018-02-09 11:11:58</t>
-  </si>
-  <si>
     <t>amy</t>
   </si>
   <si>
@@ -133,70 +133,81 @@
     <t>157xxxxxx9</t>
   </si>
   <si>
-    <t>2018年02月日 15点45分45</t>
-  </si>
-  <si>
-    <t>2018年02月日 15点47分20</t>
+    <t>22点49分52</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>22点49分58</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>22点50分03</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>XXXXXXX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXXXXXXX</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF008B00"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF008B00"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -218,93 +229,91 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="1" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -594,20 +603,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,243 +632,240 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.6" r="2" spans="1:6">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:6" ht="24.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.8" r="3" spans="1:6">
-      <c r="A3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4" t="n"/>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="A6:J6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row customHeight="1" ht="19.8" r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row customHeight="1" ht="24.6" r="2" spans="1:10">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:10" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="6" t="n"/>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row customHeight="1" ht="21" r="3" spans="1:10">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="4" spans="1:10">
-      <c r="A4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>34</v>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="4" t="n"/>
-      <c r="J4" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="5" spans="1:10">
-      <c r="A5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>36</v>
+      <c r="C5" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>37</v>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="6" t="n"/>
-    </row>
-    <row r="6" spans="1:10"/>
-    <row r="7" spans="1:10"/>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>39</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>